--- a/src/tools/conf2conv/excel/shop.xlsx
+++ b/src/tools/conf2conv/excel/shop.xlsx
@@ -1,43 +1,484 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="26145" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+  <si>
+    <t>商店ID</t>
+  </si>
+  <si>
+    <t>商店名称</t>
+  </si>
+  <si>
+    <t>说明文本</t>
+  </si>
+  <si>
+    <t>出售货币(0金币;1元宝;2绑定元宝;3物品兑换)</t>
+  </si>
+  <si>
+    <t>"参数1(当出售货币为物品兑换时,该参数为物品ID)"</t>
+  </si>
+  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>价格(物品兑换时为数量)</t>
+  </si>
+  <si>
+    <t>出售限制(0不限制;1个人数量限制;2集体数量限制)</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>coinType</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>itemid</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>limitType</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>装备商店</t>
+  </si>
+  <si>
+    <t>点击购买装备</t>
+  </si>
+  <si>
+    <t>心法兑换</t>
+  </si>
+  <si>
+    <t>使用残页兑换心法技能书</t>
+  </si>
+  <si>
+    <t>元宝商店</t>
+  </si>
+  <si>
+    <t>购买魔法</t>
+  </si>
+  <si>
+    <t>宝石商店</t>
+  </si>
+  <si>
+    <t>购买宝石</t>
+  </si>
+  <si>
+    <t>服饰商店</t>
+  </si>
+  <si>
+    <t>购买服装</t>
+  </si>
+  <si>
+    <t>锻造商店</t>
+  </si>
+  <si>
+    <t>使用剿匪证明兑换锻造财材料</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,18 +486,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -103,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -138,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -312,177 +1047,179 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>商店ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>商店名称</v>
-      </c>
-      <c r="C1" t="str">
-        <v>说明文本</v>
-      </c>
-      <c r="D1" t="str">
-        <v>出售货币(0金币;1元宝;2绑定元宝;3物品兑换)</v>
-      </c>
-      <c r="E1" t="str">
-        <v>"参数1(当出售货币为物品兑换时,该参数为物品ID)"</v>
-      </c>
-      <c r="F1" t="str">
-        <v>物品ID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>价格(物品兑换时为数量)</v>
-      </c>
-      <c r="H1" t="str">
-        <v>出售限制(0不限制;1个人数量限制;2集体数量限制)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>参数2</v>
-      </c>
-      <c r="J1" t="str">
-        <v>物品ID</v>
-      </c>
-      <c r="K1" t="str">
-        <v>价格</v>
-      </c>
-      <c r="L1" t="str">
-        <v>出售限制(0不限制;1个人数量限制;2集体数量限制)</v>
-      </c>
-      <c r="M1" t="str">
-        <v>参数2</v>
-      </c>
-      <c r="N1" t="str">
-        <v>物品ID</v>
-      </c>
-      <c r="O1" t="str">
-        <v>价格</v>
-      </c>
-      <c r="P1" t="str">
-        <v>出售限制(0不限制;1个人数量限制;2集体数量限制)</v>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>id</v>
-      </c>
-      <c r="B2" t="str">
-        <v>name</v>
-      </c>
-      <c r="C2" t="str">
-        <v>describe</v>
-      </c>
-      <c r="D2" t="str">
-        <v>coinType</v>
-      </c>
-      <c r="E2" t="str">
-        <v>param</v>
-      </c>
-      <c r="F2" t="str">
-        <v>itemid</v>
-      </c>
-      <c r="G2" t="str">
-        <v>price</v>
-      </c>
-      <c r="H2" t="str">
-        <v>limitType</v>
-      </c>
-      <c r="I2" t="str">
-        <v>num</v>
-      </c>
-      <c r="J2" t="str">
-        <v>itemid</v>
-      </c>
-      <c r="K2" t="str">
-        <v>price</v>
-      </c>
-      <c r="L2" t="str">
-        <v>limitType</v>
-      </c>
-      <c r="M2" t="str">
-        <v>num</v>
-      </c>
-      <c r="N2" t="str">
-        <v>itemid</v>
-      </c>
-      <c r="O2" t="str">
-        <v>price</v>
-      </c>
-      <c r="P2" t="str">
-        <v>limitType</v>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>int</v>
-      </c>
-      <c r="B3" t="str">
-        <v>string</v>
-      </c>
-      <c r="C3" t="str">
-        <v>string</v>
-      </c>
-      <c r="D3" t="str">
-        <v>int</v>
-      </c>
-      <c r="E3" t="str">
-        <v>int</v>
-      </c>
-      <c r="F3" t="str">
-        <v>int</v>
-      </c>
-      <c r="G3" t="str">
-        <v>int</v>
-      </c>
-      <c r="H3" t="str">
-        <v>int</v>
-      </c>
-      <c r="I3" t="str">
-        <v>int</v>
-      </c>
-      <c r="J3" t="str">
-        <v>int</v>
-      </c>
-      <c r="K3" t="str">
-        <v>int</v>
-      </c>
-      <c r="L3" t="str">
-        <v>int</v>
-      </c>
-      <c r="M3" t="str">
-        <v>int</v>
-      </c>
-      <c r="N3" t="str">
-        <v>int</v>
-      </c>
-      <c r="O3" t="str">
-        <v>int</v>
-      </c>
-      <c r="P3" t="str">
-        <v>int</v>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <v>装备商店</v>
-      </c>
-      <c r="C4" t="str">
-        <v>点击购买装备</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -524,15 +1261,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
-        <v>心法兑换</v>
-      </c>
-      <c r="C5" t="str">
-        <v>使用残页兑换心法技能书</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -553,15 +1290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <v>元宝商店</v>
-      </c>
-      <c r="C6" t="str">
-        <v>购买魔法</v>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -603,15 +1340,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <v>宝石商店</v>
-      </c>
-      <c r="C7" t="str">
-        <v>购买宝石</v>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -653,15 +1390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="str">
-        <v>服饰商店</v>
-      </c>
-      <c r="C8" t="str">
-        <v>购买服装</v>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -703,15 +1440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
-        <v>锻造商店</v>
-      </c>
-      <c r="C9" t="str">
-        <v>使用剿匪证明兑换锻造财材料</v>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -753,67 +1490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>用于在心法商店中兑换初级技能书</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>